--- a/19-价差交易/1-文档/价差盘口计算示例.xlsx
+++ b/19-价差交易/1-文档/价差盘口计算示例.xlsx
@@ -4,19 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="22357" windowHeight="10680"/>
   </bookViews>
   <sheets>
-    <sheet name="盘口计算示例-1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="价差计算示例" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>IF2006</t>
   </si>
@@ -32,20 +31,29 @@
   <si>
     <t>价格乘数</t>
   </si>
+  <si>
+    <t>持仓</t>
+  </si>
+  <si>
+    <t>交易乘数</t>
+  </si>
+  <si>
+    <t>对应价差持仓</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="#,##0_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="#,##0.000_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="#,##0.000_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -55,14 +63,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -70,6 +101,52 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -83,59 +160,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -153,46 +177,23 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,187 +215,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -423,17 +424,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -454,6 +449,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -464,24 +474,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -497,6 +489,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -525,152 +526,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -682,6 +683,18 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -774,8 +787,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3361055" y="215900"/>
-          <a:ext cx="4095750" cy="1766570"/>
+          <a:off x="3790315" y="215900"/>
+          <a:ext cx="3855720" cy="1766570"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -795,7 +808,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1074,16 +1087,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:D5"/>
+  <dimension ref="A2:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="8.875" customWidth="1"/>
-    <col min="2" max="2" width="11.5"/>
+    <col min="1" max="1" width="13.4336283185841" customWidth="1"/>
+    <col min="2" max="2" width="11.5044247787611"/>
+    <col min="3" max="3" width="12.7964601769912"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4">
@@ -1109,7 +1123,7 @@
         <v>4.015</v>
       </c>
       <c r="D3" s="1">
-        <f>C3*$C$5-ABS(B4*$B$5)</f>
+        <f>C3*$C$5-ABS(B4*B5)</f>
         <v>16.9999999999995</v>
       </c>
     </row>
@@ -1124,7 +1138,7 @@
         <v>4.011</v>
       </c>
       <c r="D4" s="1">
-        <f>C4*$C$5-ABS(B3*B5)</f>
+        <f>C4*C5-ABS(B3*B5)</f>
         <v>12.8000000000002</v>
       </c>
     </row>
@@ -1139,6 +1153,46 @@
         <v>1000</v>
       </c>
       <c r="D5" s="1"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5">
+        <v>3</v>
+      </c>
+      <c r="C7" s="6">
+        <v>-1200000</v>
+      </c>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C8" s="6">
+        <v>300000</v>
+      </c>
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="7">
+        <f>B7/B8</f>
+        <v>-3</v>
+      </c>
+      <c r="C9" s="7">
+        <f>C7/C8</f>
+        <v>-4</v>
+      </c>
+      <c r="D9" s="7">
+        <v>-3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1154,24 +1208,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/19-价差交易/1-文档/价差盘口计算示例.xlsx
+++ b/19-价差交易/1-文档/价差盘口计算示例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22357" windowHeight="10680"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="价差计算示例" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>IF2006</t>
   </si>
@@ -40,18 +40,27 @@
   <si>
     <t>对应价差持仓</t>
   </si>
+  <si>
+    <t>bid_volume</t>
+  </si>
+  <si>
+    <t>trade_multiplier</t>
+  </si>
+  <si>
+    <t>adjusted_bid_volume</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="#,##0_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="#,##0.000_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -63,12 +72,65 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -76,8 +138,62 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -92,119 +208,12 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -215,19 +224,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -239,163 +392,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,9 +435,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -448,6 +474,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -463,17 +498,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -497,27 +526,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -529,10 +538,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -541,137 +550,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -685,13 +694,10 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -787,8 +793,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3790315" y="215900"/>
-          <a:ext cx="3855720" cy="1766570"/>
+          <a:off x="4365625" y="215900"/>
+          <a:ext cx="4095750" cy="1766570"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -808,7 +814,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1087,17 +1093,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:D9"/>
+  <dimension ref="A2:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="13.4336283185841" customWidth="1"/>
-    <col min="2" max="2" width="11.5044247787611"/>
-    <col min="3" max="3" width="12.7964601769912"/>
+    <col min="1" max="1" width="18.25" customWidth="1"/>
+    <col min="2" max="2" width="11.5083333333333"/>
+    <col min="3" max="3" width="12.8"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4">
@@ -1155,44 +1161,82 @@
       <c r="D5" s="1"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>3</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="3">
         <v>-1200000</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>-1</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="3">
         <v>300000</v>
       </c>
-      <c r="D8" s="6"/>
+      <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="5">
         <f>B7/B8</f>
         <v>-3</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="5">
         <f>C7/C8</f>
         <v>-4</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="5">
         <v>-3</v>
       </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="4">
+        <v>3</v>
+      </c>
+      <c r="C11" s="3">
+        <v>-1200000</v>
+      </c>
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="4">
+        <v>-1</v>
+      </c>
+      <c r="C12" s="3">
+        <v>300000</v>
+      </c>
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="4">
+        <f>B11/B12</f>
+        <v>-3</v>
+      </c>
+      <c r="C13" s="3">
+        <f>C11/C12</f>
+        <v>-4</v>
+      </c>
+      <c r="D13" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
